--- a/reports/week8.xlsx
+++ b/reports/week8.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer\Downloads\reports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{80BA9310-A51F-411B-99E6-0B1AD623F2FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A64290B5-0216-4368-B515-FAB9450C5391}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0700A0D7-6B74-43E1-BE4D-D152C91E9895}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>Báo cáo tiến độ</t>
   </si>
@@ -63,6 +63,15 @@
   </si>
   <si>
     <t>Công việc dự kiến tuần tới</t>
+  </si>
+  <si>
+    <t>Lại Việt Anh</t>
+  </si>
+  <si>
+    <t>Xây dựng mô hình giám sát và điều khiển nhà thông minh</t>
+  </si>
+  <si>
+    <t>thiết kế hệ thống</t>
   </si>
 </sst>
 </file>
@@ -176,13 +185,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -201,23 +228,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -556,7 +568,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="B4" sqref="B4:H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -565,120 +577,136 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22.8" x14ac:dyDescent="0.4">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="6"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="12"/>
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="9"/>
+      <c r="B2" s="13">
+        <v>8</v>
+      </c>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="15"/>
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="9"/>
+      <c r="B3" s="16">
+        <v>45985</v>
+      </c>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="15"/>
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="9"/>
+      <c r="B4" s="16">
+        <v>45984</v>
+      </c>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="15"/>
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="9"/>
+      <c r="B5" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="15"/>
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="9"/>
+      <c r="B6" s="13">
+        <v>179066</v>
+      </c>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="15"/>
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="12"/>
+      <c r="B7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="6"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="15"/>
+      <c r="B8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="9"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="15"/>
+      <c r="B9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="9"/>
       <c r="I9" s="1"/>
     </row>
   </sheetData>
